--- a/data/577 Projects/project_effort_data.xlsx
+++ b/data/577 Projects/project_effort_data.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698A9ACE-C741-40C9-A0A6-B0AC60EA92C9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="13800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="project_categorization" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>year</t>
   </si>
@@ -39,11 +49,29 @@
   <si>
     <t>f10</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,6 +121,1244 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>project_categorization!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>project_categorization!$A$13:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>project_categorization!$B$13:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.15384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5454545454545456E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1AAE-4A2F-9774-0F3626565C80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>project_categorization!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Web</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>project_categorization!$A$13:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>project_categorization!$C$13:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.84615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90909090909090906</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59090909090909094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1AAE-4A2F-9774-0F3626565C80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>project_categorization!$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mobile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>project_categorization!$A$13:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>project_categorization!$D$13:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27272727272727271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1AAE-4A2F-9774-0F3626565C80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>project_categorization!$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hybrid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>project_categorization!$A$13:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>project_categorization!$E$13:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1AAE-4A2F-9774-0F3626565C80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2105419072"/>
+        <c:axId val="1898990800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2105419072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1898990800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1898990800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2105419072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAC27348-E398-4F2D-A9BB-C7853AC0A8D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -171,6 +1437,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -206,6 +1489,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -381,10 +1681,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -770,4 +2070,445 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C9E4F2-324E-4D14-B831-0448B5912C74}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2011</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>SUM(B2:E2)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2012</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F9" si="0">SUM(B3:E3)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2013</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2014</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2015</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2016</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2017</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2018</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <f>SUM(B2:B9)</f>
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f>SUM(C2:C9)</f>
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <f>SUM(D2:D9)</f>
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <f>SUM(E2:E9)</f>
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <f>SUM(B10:E10)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+      <c r="B13">
+        <f>B2/$F2</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:E13" si="1">C2/$F2</f>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14">
+        <f>B3/$F3</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:E14" si="2">C3/$F3</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:E15" si="3">B4/$F4</f>
+        <v>0.125</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="3"/>
+        <v>0.625</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ref="B16:E16" si="4">B5/$F5</f>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2015</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:E17" si="5">B6/$F6</f>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="5"/>
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="5"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:E18" si="6">B7/$F7</f>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="6"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="6"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="6"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:E19" si="7">B8/$F8</f>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20:E20" si="8">B9/$F9</f>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="8"/>
+        <v>0.375</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="8"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f>6/92</f>
+        <v>6.5217391304347824E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f>60/92</f>
+        <v>0.65217391304347827</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f>20/92</f>
+        <v>0.21739130434782608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f>6/92</f>
+        <v>6.5217391304347824E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>